--- a/reportGeneration/src/files/input.xlsx
+++ b/reportGeneration/src/files/input.xlsx
@@ -1274,7 +1274,7 @@
   Score 6.0: 2 type(s) (Spatial-Visual, Interpersonal)
   Score 5.0: 1 type(s) (Musical)
   Score 4.0: 1 type(s) (Intrapersonal)
-Top personality traits from previous analysis: Investigative, Enterprising, Realistic
+Top personality traits from previous analysis: Realistic, Investigative, Enterprising
 No tie-breaker needed for group with score 10.0.
 No tie-breaker needed for group with score 9.0.
 Rank 1: Linguistic (selected uniquely from score 10.0)
@@ -1385,12 +1385,12 @@
       </c>
       <c r="CE2" t="inlineStr">
         <is>
-          <t>Motor movement</t>
+          <t>Communication</t>
         </is>
       </c>
       <c r="CF2" t="inlineStr">
         <is>
-          <t>Missing: Motor Movement, Logical Reasoning, Communication</t>
+          <t>Missing: Communication, Motor Movement, Finger Dexterity</t>
         </is>
       </c>
       <c r="CG2" t="inlineStr">
@@ -1814,7 +1814,7 @@
   Score 9.0: 1 type(s) (Logical-Mathematical)
   Score 8.0: 1 type(s) (Linguistic)
   Score 4.0: 1 type(s) (Intrapersonal)
-Top personality traits from previous analysis: Artistic, Realistic, Conventional
+Top personality traits from previous analysis: Realistic, Conventional, Artistic
 No tie-breaker needed for group with score 12.0.
 No tie-breaker needed for group with score 11.0.
 Rank 1: Naturalistic (selected uniquely from score 12.0)
@@ -1930,7 +1930,7 @@
       </c>
       <c r="CF3" t="inlineStr">
         <is>
-          <t>Missing: Computational, Creativity, Communication</t>
+          <t>Missing: Computational, Communication, Creativity</t>
         </is>
       </c>
       <c r="CG3" t="inlineStr">
@@ -2357,7 +2357,7 @@
   Score 11.0: 3 type(s) (Naturalistic, Logical-Mathematical, Bodily-Kinesthetic)
   Score 9.0: 1 type(s) (Musical)
   Score 8.0: 1 type(s) (Spatial-Visual)
-Top personality traits from previous analysis: Social, Artistic, Realistic
+Top personality traits from previous analysis: Realistic, Social, Artistic
 No tie-breaker needed for group with score 12.0.
 Rank 1: Linguistic (selected uniquely from score 12.0)
 Rank 2: Intrapersonal (selected uniquely from score 12.0)
@@ -2467,12 +2467,12 @@
       </c>
       <c r="CE4" t="inlineStr">
         <is>
-          <t>Decision making &amp; problem solving</t>
+          <t>Finger dexterity</t>
         </is>
       </c>
       <c r="CF4" t="inlineStr">
         <is>
-          <t>Missing: Decision Making &amp; Problem Solving, Speed And Accuracy, Creativity</t>
+          <t>Missing: Finger Dexterity, Creativity, Speed And Accuracy</t>
         </is>
       </c>
       <c r="CG4" t="inlineStr">
@@ -3324,7 +3324,7 @@
   Score 6.0: 2 type(s) (Spatial-Visual, Interpersonal)
   Score 5.0: 1 type(s) (Musical)
   Score 4.0: 1 type(s) (Intrapersonal)
-Top personality traits from previous analysis: Investigative, Enterprising, Realistic
+Top personality traits from previous analysis: Realistic, Investigative, Enterprising
 No tie-breaker needed for group with score 10.0.
 No tie-breaker needed for group with score 9.0.
 Rank 1: Linguistic (selected uniquely from score 10.0)
@@ -3435,12 +3435,12 @@
       </c>
       <c r="CE2" t="inlineStr">
         <is>
-          <t>Motor movement</t>
+          <t>Communication</t>
         </is>
       </c>
       <c r="CF2" t="inlineStr">
         <is>
-          <t>Missing: Motor Movement, Logical Reasoning, Communication</t>
+          <t>Missing: Communication, Motor Movement, Finger Dexterity</t>
         </is>
       </c>
     </row>
@@ -3705,7 +3705,7 @@
   Score 9.0: 1 type(s) (Logical-Mathematical)
   Score 8.0: 1 type(s) (Linguistic)
   Score 4.0: 1 type(s) (Intrapersonal)
-Top personality traits from previous analysis: Artistic, Realistic, Conventional
+Top personality traits from previous analysis: Realistic, Conventional, Artistic
 No tie-breaker needed for group with score 12.0.
 No tie-breaker needed for group with score 11.0.
 Rank 1: Naturalistic (selected uniquely from score 12.0)
@@ -3821,7 +3821,7 @@
       </c>
       <c r="CF3" t="inlineStr">
         <is>
-          <t>Missing: Computational, Creativity, Communication</t>
+          <t>Missing: Computational, Communication, Creativity</t>
         </is>
       </c>
     </row>
@@ -4084,7 +4084,7 @@
   Score 11.0: 3 type(s) (Naturalistic, Logical-Mathematical, Bodily-Kinesthetic)
   Score 9.0: 1 type(s) (Musical)
   Score 8.0: 1 type(s) (Spatial-Visual)
-Top personality traits from previous analysis: Social, Artistic, Realistic
+Top personality traits from previous analysis: Realistic, Social, Artistic
 No tie-breaker needed for group with score 12.0.
 Rank 1: Linguistic (selected uniquely from score 12.0)
 Rank 2: Intrapersonal (selected uniquely from score 12.0)
@@ -4194,12 +4194,12 @@
       </c>
       <c r="CE4" t="inlineStr">
         <is>
-          <t>Decision making &amp; problem solving</t>
+          <t>Finger dexterity</t>
         </is>
       </c>
       <c r="CF4" t="inlineStr">
         <is>
-          <t>Missing: Decision Making &amp; Problem Solving, Speed And Accuracy, Creativity</t>
+          <t>Missing: Finger Dexterity, Creativity, Speed And Accuracy</t>
         </is>
       </c>
     </row>
@@ -4905,7 +4905,7 @@
   Score 6.0: 2 type(s) (Spatial-Visual, Interpersonal)
   Score 5.0: 1 type(s) (Musical)
   Score 4.0: 1 type(s) (Intrapersonal)
-Top personality traits from previous analysis: Investigative, Enterprising, Realistic
+Top personality traits from previous analysis: Realistic, Investigative, Enterprising
 No tie-breaker needed for group with score 10.0.
 No tie-breaker needed for group with score 9.0.
 Rank 1: Linguistic (selected uniquely from score 10.0)
@@ -5016,12 +5016,12 @@
       </c>
       <c r="CE2" t="inlineStr">
         <is>
-          <t>Motor movement</t>
+          <t>Communication</t>
         </is>
       </c>
       <c r="CF2" t="inlineStr">
         <is>
-          <t>Missing: Motor Movement, Logical Reasoning, Communication</t>
+          <t>Missing: Communication, Motor Movement, Finger Dexterity</t>
         </is>
       </c>
     </row>
@@ -5286,7 +5286,7 @@
   Score 9.0: 1 type(s) (Logical-Mathematical)
   Score 8.0: 1 type(s) (Linguistic)
   Score 4.0: 1 type(s) (Intrapersonal)
-Top personality traits from previous analysis: Artistic, Realistic, Conventional
+Top personality traits from previous analysis: Realistic, Conventional, Artistic
 No tie-breaker needed for group with score 12.0.
 No tie-breaker needed for group with score 11.0.
 Rank 1: Naturalistic (selected uniquely from score 12.0)
@@ -5402,7 +5402,7 @@
       </c>
       <c r="CF3" t="inlineStr">
         <is>
-          <t>Missing: Computational, Creativity, Communication</t>
+          <t>Missing: Computational, Communication, Creativity</t>
         </is>
       </c>
     </row>
@@ -5665,7 +5665,7 @@
   Score 11.0: 3 type(s) (Naturalistic, Logical-Mathematical, Bodily-Kinesthetic)
   Score 9.0: 1 type(s) (Musical)
   Score 8.0: 1 type(s) (Spatial-Visual)
-Top personality traits from previous analysis: Social, Artistic, Realistic
+Top personality traits from previous analysis: Realistic, Social, Artistic
 No tie-breaker needed for group with score 12.0.
 Rank 1: Linguistic (selected uniquely from score 12.0)
 Rank 2: Intrapersonal (selected uniquely from score 12.0)
@@ -5775,12 +5775,12 @@
       </c>
       <c r="CE4" t="inlineStr">
         <is>
-          <t>Decision making &amp; problem solving</t>
+          <t>Finger dexterity</t>
         </is>
       </c>
       <c r="CF4" t="inlineStr">
         <is>
-          <t>Missing: Decision Making &amp; Problem Solving, Speed And Accuracy, Creativity</t>
+          <t>Missing: Finger Dexterity, Creativity, Speed And Accuracy</t>
         </is>
       </c>
     </row>
@@ -6486,7 +6486,7 @@
   Score 6.0: 2 type(s) (Spatial-Visual, Interpersonal)
   Score 5.0: 1 type(s) (Musical)
   Score 4.0: 1 type(s) (Intrapersonal)
-Top personality traits from previous analysis: Investigative, Enterprising, Realistic
+Top personality traits from previous analysis: Realistic, Investigative, Enterprising
 No tie-breaker needed for group with score 10.0.
 No tie-breaker needed for group with score 9.0.
 Rank 1: Linguistic (selected uniquely from score 10.0)
@@ -6597,12 +6597,12 @@
       </c>
       <c r="CE2" t="inlineStr">
         <is>
-          <t>Motor movement</t>
+          <t>Communication</t>
         </is>
       </c>
       <c r="CF2" t="inlineStr">
         <is>
-          <t>Missing: Motor Movement, Logical Reasoning, Communication</t>
+          <t>Missing: Communication, Motor Movement, Finger Dexterity</t>
         </is>
       </c>
     </row>
@@ -6867,7 +6867,7 @@
   Score 9.0: 1 type(s) (Logical-Mathematical)
   Score 8.0: 1 type(s) (Linguistic)
   Score 4.0: 1 type(s) (Intrapersonal)
-Top personality traits from previous analysis: Artistic, Realistic, Conventional
+Top personality traits from previous analysis: Realistic, Conventional, Artistic
 No tie-breaker needed for group with score 12.0.
 No tie-breaker needed for group with score 11.0.
 Rank 1: Naturalistic (selected uniquely from score 12.0)
@@ -6983,7 +6983,7 @@
       </c>
       <c r="CF3" t="inlineStr">
         <is>
-          <t>Missing: Computational, Creativity, Communication</t>
+          <t>Missing: Computational, Communication, Creativity</t>
         </is>
       </c>
     </row>
@@ -7246,7 +7246,7 @@
   Score 11.0: 3 type(s) (Naturalistic, Logical-Mathematical, Bodily-Kinesthetic)
   Score 9.0: 1 type(s) (Musical)
   Score 8.0: 1 type(s) (Spatial-Visual)
-Top personality traits from previous analysis: Social, Artistic, Realistic
+Top personality traits from previous analysis: Realistic, Social, Artistic
 No tie-breaker needed for group with score 12.0.
 Rank 1: Linguistic (selected uniquely from score 12.0)
 Rank 2: Intrapersonal (selected uniquely from score 12.0)
@@ -7356,12 +7356,12 @@
       </c>
       <c r="CE4" t="inlineStr">
         <is>
-          <t>Decision making &amp; problem solving</t>
+          <t>Finger dexterity</t>
         </is>
       </c>
       <c r="CF4" t="inlineStr">
         <is>
-          <t>Missing: Decision Making &amp; Problem Solving, Speed And Accuracy, Creativity</t>
+          <t>Missing: Finger Dexterity, Creativity, Speed And Accuracy</t>
         </is>
       </c>
     </row>
@@ -8067,7 +8067,7 @@
   Score 6.0: 2 type(s) (Spatial-Visual, Interpersonal)
   Score 5.0: 1 type(s) (Musical)
   Score 4.0: 1 type(s) (Intrapersonal)
-Top personality traits from previous analysis: Investigative, Enterprising, Realistic
+Top personality traits from previous analysis: Realistic, Investigative, Enterprising
 No tie-breaker needed for group with score 10.0.
 No tie-breaker needed for group with score 9.0.
 Rank 1: Linguistic (selected uniquely from score 10.0)
@@ -8178,12 +8178,12 @@
       </c>
       <c r="CE2" t="inlineStr">
         <is>
-          <t>Motor movement</t>
+          <t>Communication</t>
         </is>
       </c>
       <c r="CF2" t="inlineStr">
         <is>
-          <t>Missing: Motor Movement, Logical Reasoning, Communication</t>
+          <t>Missing: Communication, Motor Movement, Finger Dexterity</t>
         </is>
       </c>
     </row>
@@ -8448,7 +8448,7 @@
   Score 9.0: 1 type(s) (Logical-Mathematical)
   Score 8.0: 1 type(s) (Linguistic)
   Score 4.0: 1 type(s) (Intrapersonal)
-Top personality traits from previous analysis: Artistic, Realistic, Conventional
+Top personality traits from previous analysis: Realistic, Conventional, Artistic
 No tie-breaker needed for group with score 12.0.
 No tie-breaker needed for group with score 11.0.
 Rank 1: Naturalistic (selected uniquely from score 12.0)
@@ -8564,7 +8564,7 @@
       </c>
       <c r="CF3" t="inlineStr">
         <is>
-          <t>Missing: Computational, Creativity, Communication</t>
+          <t>Missing: Computational, Communication, Creativity</t>
         </is>
       </c>
     </row>
@@ -8827,7 +8827,7 @@
   Score 11.0: 3 type(s) (Naturalistic, Logical-Mathematical, Bodily-Kinesthetic)
   Score 9.0: 1 type(s) (Musical)
   Score 8.0: 1 type(s) (Spatial-Visual)
-Top personality traits from previous analysis: Social, Artistic, Realistic
+Top personality traits from previous analysis: Realistic, Social, Artistic
 No tie-breaker needed for group with score 12.0.
 Rank 1: Linguistic (selected uniquely from score 12.0)
 Rank 2: Intrapersonal (selected uniquely from score 12.0)
@@ -8937,12 +8937,12 @@
       </c>
       <c r="CE4" t="inlineStr">
         <is>
-          <t>Decision making &amp; problem solving</t>
+          <t>Finger dexterity</t>
         </is>
       </c>
       <c r="CF4" t="inlineStr">
         <is>
-          <t>Missing: Decision Making &amp; Problem Solving, Speed And Accuracy, Creativity</t>
+          <t>Missing: Finger Dexterity, Creativity, Speed And Accuracy</t>
         </is>
       </c>
     </row>
@@ -10153,7 +10153,7 @@
   Score 6.0: 2 type(s) (Spatial-Visual, Interpersonal)
   Score 5.0: 1 type(s) (Musical)
   Score 4.0: 1 type(s) (Intrapersonal)
-Top personality traits from previous analysis: Investigative, Enterprising, Realistic
+Top personality traits from previous analysis: Realistic, Investigative, Enterprising
 No tie-breaker needed for group with score 10.0.
 No tie-breaker needed for group with score 9.0.
 Rank 1: Linguistic (selected uniquely from score 10.0)
@@ -10264,12 +10264,12 @@
       </c>
       <c r="CE2" t="inlineStr">
         <is>
-          <t>Motor movement</t>
+          <t>Communication</t>
         </is>
       </c>
       <c r="CF2" t="inlineStr">
         <is>
-          <t>Missing: Motor Movement, Logical Reasoning, Communication</t>
+          <t>Missing: Communication, Motor Movement, Finger Dexterity</t>
         </is>
       </c>
       <c r="CG2" t="inlineStr">
@@ -10791,11 +10791,11 @@
       </c>
       <c r="GC2" t="inlineStr">
         <is>
-          <t>• Sports Practice: Join and practice regularly with a school sports team.
-• Advanced Yoga: Participate in yoga sessions with challenging poses.
-• Dance Routines: Learn and perform choreographed dance routines.
-• Strength Training: Perform bodyweight exercises to build strength.
-• Swimming Techniques: Improve stroke techniques and endurance through lap swimming.</t>
+          <t>• Debate on Current Affairs: Discuss the impact of technology on education.
+• Essay Writing: Participate in essay contests on themes like My Vision for India's Future.
+• Book Clubs: Read and discuss novels or plays focusing on themes and character analysis.
+• Creative Blogging: Start a blog on a favorite topic with weekly updates.
+• Spoken Word Poetry: Write and perform spoken-word pieces to express personal views creatively.</t>
         </is>
       </c>
     </row>
@@ -11060,7 +11060,7 @@
   Score 9.0: 1 type(s) (Logical-Mathematical)
   Score 8.0: 1 type(s) (Linguistic)
   Score 4.0: 1 type(s) (Intrapersonal)
-Top personality traits from previous analysis: Artistic, Realistic, Conventional
+Top personality traits from previous analysis: Realistic, Conventional, Artistic
 No tie-breaker needed for group with score 12.0.
 No tie-breaker needed for group with score 11.0.
 Rank 1: Naturalistic (selected uniquely from score 12.0)
@@ -11176,7 +11176,7 @@
       </c>
       <c r="CF3" t="inlineStr">
         <is>
-          <t>Missing: Computational, Creativity, Communication</t>
+          <t>Missing: Computational, Communication, Creativity</t>
         </is>
       </c>
       <c r="CG3" t="inlineStr">
@@ -11974,7 +11974,7 @@
   Score 11.0: 3 type(s) (Naturalistic, Logical-Mathematical, Bodily-Kinesthetic)
   Score 9.0: 1 type(s) (Musical)
   Score 8.0: 1 type(s) (Spatial-Visual)
-Top personality traits from previous analysis: Social, Artistic, Realistic
+Top personality traits from previous analysis: Realistic, Social, Artistic
 No tie-breaker needed for group with score 12.0.
 Rank 1: Linguistic (selected uniquely from score 12.0)
 Rank 2: Intrapersonal (selected uniquely from score 12.0)
@@ -12084,12 +12084,12 @@
       </c>
       <c r="CE4" t="inlineStr">
         <is>
-          <t>Decision making &amp; problem solving</t>
+          <t>Finger dexterity</t>
         </is>
       </c>
       <c r="CF4" t="inlineStr">
         <is>
-          <t>Missing: Decision Making &amp; Problem Solving, Speed And Accuracy, Creativity</t>
+          <t>Missing: Finger Dexterity, Creativity, Speed And Accuracy</t>
         </is>
       </c>
       <c r="CG4" t="inlineStr">
@@ -12605,7 +12605,15 @@
 Assist in planning a family outing, including logistics.</t>
         </is>
       </c>
-      <c r="GC4" t="inlineStr"/>
+      <c r="GC4" t="inlineStr">
+        <is>
+          <t>• Intricate Origami: Create complex origami designs.
+• Knitting Projects: Knit wearable items like scarves.
+• Model Assembly: Build detailed models of cars or airplanes.
+• Calligraphy Classes: Practice decorative writing to improve hand control.
+• Clay Sculpting: Sculpt detailed miniatures from clay or polymer.</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/reportGeneration/src/files/input.xlsx
+++ b/reportGeneration/src/files/input.xlsx
@@ -1274,7 +1274,7 @@
   Score 6.0: 2 type(s) (Spatial-Visual, Interpersonal)
   Score 5.0: 1 type(s) (Musical)
   Score 4.0: 1 type(s) (Intrapersonal)
-Top personality traits from previous analysis: Realistic, Investigative, Enterprising
+Top personality traits from previous analysis: Investigative, Enterprising, Realistic
 No tie-breaker needed for group with score 10.0.
 No tie-breaker needed for group with score 9.0.
 Rank 1: Linguistic (selected uniquely from score 10.0)
@@ -1385,12 +1385,12 @@
       </c>
       <c r="CE2" t="inlineStr">
         <is>
-          <t>Communication</t>
+          <t>Finger dexterity</t>
         </is>
       </c>
       <c r="CF2" t="inlineStr">
         <is>
-          <t>Missing: Communication, Motor Movement, Finger Dexterity</t>
+          <t>Missing: Finger Dexterity, Logical Reasoning, Motor Movement</t>
         </is>
       </c>
       <c r="CG2" t="inlineStr">
@@ -1814,7 +1814,7 @@
   Score 9.0: 1 type(s) (Logical-Mathematical)
   Score 8.0: 1 type(s) (Linguistic)
   Score 4.0: 1 type(s) (Intrapersonal)
-Top personality traits from previous analysis: Realistic, Conventional, Artistic
+Top personality traits from previous analysis: Conventional, Realistic, Artistic
 No tie-breaker needed for group with score 12.0.
 No tie-breaker needed for group with score 11.0.
 Rank 1: Naturalistic (selected uniquely from score 12.0)
@@ -1925,12 +1925,12 @@
       </c>
       <c r="CE3" t="inlineStr">
         <is>
-          <t>Computational</t>
+          <t>Creativity</t>
         </is>
       </c>
       <c r="CF3" t="inlineStr">
         <is>
-          <t>Missing: Computational, Communication, Creativity</t>
+          <t>Missing: Creativity, Computational, Communication</t>
         </is>
       </c>
       <c r="CG3" t="inlineStr">
@@ -2357,7 +2357,7 @@
   Score 11.0: 3 type(s) (Naturalistic, Logical-Mathematical, Bodily-Kinesthetic)
   Score 9.0: 1 type(s) (Musical)
   Score 8.0: 1 type(s) (Spatial-Visual)
-Top personality traits from previous analysis: Realistic, Social, Artistic
+Top personality traits from previous analysis: Social, Realistic, Artistic
 No tie-breaker needed for group with score 12.0.
 Rank 1: Linguistic (selected uniquely from score 12.0)
 Rank 2: Intrapersonal (selected uniquely from score 12.0)
@@ -2467,12 +2467,12 @@
       </c>
       <c r="CE4" t="inlineStr">
         <is>
-          <t>Finger dexterity</t>
+          <t>Speed and accuracy</t>
         </is>
       </c>
       <c r="CF4" t="inlineStr">
         <is>
-          <t>Missing: Finger Dexterity, Creativity, Speed And Accuracy</t>
+          <t>Missing: Speed And Accuracy, Creativity, Decision Making &amp; Problem Solving</t>
         </is>
       </c>
       <c r="CG4" t="inlineStr">
@@ -3324,7 +3324,7 @@
   Score 6.0: 2 type(s) (Spatial-Visual, Interpersonal)
   Score 5.0: 1 type(s) (Musical)
   Score 4.0: 1 type(s) (Intrapersonal)
-Top personality traits from previous analysis: Realistic, Investigative, Enterprising
+Top personality traits from previous analysis: Investigative, Enterprising, Realistic
 No tie-breaker needed for group with score 10.0.
 No tie-breaker needed for group with score 9.0.
 Rank 1: Linguistic (selected uniquely from score 10.0)
@@ -3435,12 +3435,12 @@
       </c>
       <c r="CE2" t="inlineStr">
         <is>
-          <t>Communication</t>
+          <t>Finger dexterity</t>
         </is>
       </c>
       <c r="CF2" t="inlineStr">
         <is>
-          <t>Missing: Communication, Motor Movement, Finger Dexterity</t>
+          <t>Missing: Finger Dexterity, Logical Reasoning, Motor Movement</t>
         </is>
       </c>
     </row>
@@ -3705,7 +3705,7 @@
   Score 9.0: 1 type(s) (Logical-Mathematical)
   Score 8.0: 1 type(s) (Linguistic)
   Score 4.0: 1 type(s) (Intrapersonal)
-Top personality traits from previous analysis: Realistic, Conventional, Artistic
+Top personality traits from previous analysis: Conventional, Realistic, Artistic
 No tie-breaker needed for group with score 12.0.
 No tie-breaker needed for group with score 11.0.
 Rank 1: Naturalistic (selected uniquely from score 12.0)
@@ -3816,12 +3816,12 @@
       </c>
       <c r="CE3" t="inlineStr">
         <is>
-          <t>Computational</t>
+          <t>Creativity</t>
         </is>
       </c>
       <c r="CF3" t="inlineStr">
         <is>
-          <t>Missing: Computational, Communication, Creativity</t>
+          <t>Missing: Creativity, Computational, Communication</t>
         </is>
       </c>
     </row>
@@ -4084,7 +4084,7 @@
   Score 11.0: 3 type(s) (Naturalistic, Logical-Mathematical, Bodily-Kinesthetic)
   Score 9.0: 1 type(s) (Musical)
   Score 8.0: 1 type(s) (Spatial-Visual)
-Top personality traits from previous analysis: Realistic, Social, Artistic
+Top personality traits from previous analysis: Social, Realistic, Artistic
 No tie-breaker needed for group with score 12.0.
 Rank 1: Linguistic (selected uniquely from score 12.0)
 Rank 2: Intrapersonal (selected uniquely from score 12.0)
@@ -4194,12 +4194,12 @@
       </c>
       <c r="CE4" t="inlineStr">
         <is>
-          <t>Finger dexterity</t>
+          <t>Speed and accuracy</t>
         </is>
       </c>
       <c r="CF4" t="inlineStr">
         <is>
-          <t>Missing: Finger Dexterity, Creativity, Speed And Accuracy</t>
+          <t>Missing: Speed And Accuracy, Creativity, Decision Making &amp; Problem Solving</t>
         </is>
       </c>
     </row>
@@ -4905,7 +4905,7 @@
   Score 6.0: 2 type(s) (Spatial-Visual, Interpersonal)
   Score 5.0: 1 type(s) (Musical)
   Score 4.0: 1 type(s) (Intrapersonal)
-Top personality traits from previous analysis: Realistic, Investigative, Enterprising
+Top personality traits from previous analysis: Investigative, Enterprising, Realistic
 No tie-breaker needed for group with score 10.0.
 No tie-breaker needed for group with score 9.0.
 Rank 1: Linguistic (selected uniquely from score 10.0)
@@ -5016,12 +5016,12 @@
       </c>
       <c r="CE2" t="inlineStr">
         <is>
-          <t>Communication</t>
+          <t>Finger dexterity</t>
         </is>
       </c>
       <c r="CF2" t="inlineStr">
         <is>
-          <t>Missing: Communication, Motor Movement, Finger Dexterity</t>
+          <t>Missing: Finger Dexterity, Logical Reasoning, Motor Movement</t>
         </is>
       </c>
     </row>
@@ -5286,7 +5286,7 @@
   Score 9.0: 1 type(s) (Logical-Mathematical)
   Score 8.0: 1 type(s) (Linguistic)
   Score 4.0: 1 type(s) (Intrapersonal)
-Top personality traits from previous analysis: Realistic, Conventional, Artistic
+Top personality traits from previous analysis: Conventional, Realistic, Artistic
 No tie-breaker needed for group with score 12.0.
 No tie-breaker needed for group with score 11.0.
 Rank 1: Naturalistic (selected uniquely from score 12.0)
@@ -5397,12 +5397,12 @@
       </c>
       <c r="CE3" t="inlineStr">
         <is>
-          <t>Computational</t>
+          <t>Creativity</t>
         </is>
       </c>
       <c r="CF3" t="inlineStr">
         <is>
-          <t>Missing: Computational, Communication, Creativity</t>
+          <t>Missing: Creativity, Computational, Communication</t>
         </is>
       </c>
     </row>
@@ -5665,7 +5665,7 @@
   Score 11.0: 3 type(s) (Naturalistic, Logical-Mathematical, Bodily-Kinesthetic)
   Score 9.0: 1 type(s) (Musical)
   Score 8.0: 1 type(s) (Spatial-Visual)
-Top personality traits from previous analysis: Realistic, Social, Artistic
+Top personality traits from previous analysis: Social, Realistic, Artistic
 No tie-breaker needed for group with score 12.0.
 Rank 1: Linguistic (selected uniquely from score 12.0)
 Rank 2: Intrapersonal (selected uniquely from score 12.0)
@@ -5775,12 +5775,12 @@
       </c>
       <c r="CE4" t="inlineStr">
         <is>
-          <t>Finger dexterity</t>
+          <t>Speed and accuracy</t>
         </is>
       </c>
       <c r="CF4" t="inlineStr">
         <is>
-          <t>Missing: Finger Dexterity, Creativity, Speed And Accuracy</t>
+          <t>Missing: Speed And Accuracy, Creativity, Decision Making &amp; Problem Solving</t>
         </is>
       </c>
     </row>
@@ -6486,7 +6486,7 @@
   Score 6.0: 2 type(s) (Spatial-Visual, Interpersonal)
   Score 5.0: 1 type(s) (Musical)
   Score 4.0: 1 type(s) (Intrapersonal)
-Top personality traits from previous analysis: Realistic, Investigative, Enterprising
+Top personality traits from previous analysis: Investigative, Enterprising, Realistic
 No tie-breaker needed for group with score 10.0.
 No tie-breaker needed for group with score 9.0.
 Rank 1: Linguistic (selected uniquely from score 10.0)
@@ -6597,12 +6597,12 @@
       </c>
       <c r="CE2" t="inlineStr">
         <is>
-          <t>Communication</t>
+          <t>Finger dexterity</t>
         </is>
       </c>
       <c r="CF2" t="inlineStr">
         <is>
-          <t>Missing: Communication, Motor Movement, Finger Dexterity</t>
+          <t>Missing: Finger Dexterity, Logical Reasoning, Motor Movement</t>
         </is>
       </c>
     </row>
@@ -6867,7 +6867,7 @@
   Score 9.0: 1 type(s) (Logical-Mathematical)
   Score 8.0: 1 type(s) (Linguistic)
   Score 4.0: 1 type(s) (Intrapersonal)
-Top personality traits from previous analysis: Realistic, Conventional, Artistic
+Top personality traits from previous analysis: Conventional, Realistic, Artistic
 No tie-breaker needed for group with score 12.0.
 No tie-breaker needed for group with score 11.0.
 Rank 1: Naturalistic (selected uniquely from score 12.0)
@@ -6978,12 +6978,12 @@
       </c>
       <c r="CE3" t="inlineStr">
         <is>
-          <t>Computational</t>
+          <t>Creativity</t>
         </is>
       </c>
       <c r="CF3" t="inlineStr">
         <is>
-          <t>Missing: Computational, Communication, Creativity</t>
+          <t>Missing: Creativity, Computational, Communication</t>
         </is>
       </c>
     </row>
@@ -7246,7 +7246,7 @@
   Score 11.0: 3 type(s) (Naturalistic, Logical-Mathematical, Bodily-Kinesthetic)
   Score 9.0: 1 type(s) (Musical)
   Score 8.0: 1 type(s) (Spatial-Visual)
-Top personality traits from previous analysis: Realistic, Social, Artistic
+Top personality traits from previous analysis: Social, Realistic, Artistic
 No tie-breaker needed for group with score 12.0.
 Rank 1: Linguistic (selected uniquely from score 12.0)
 Rank 2: Intrapersonal (selected uniquely from score 12.0)
@@ -7356,12 +7356,12 @@
       </c>
       <c r="CE4" t="inlineStr">
         <is>
-          <t>Finger dexterity</t>
+          <t>Speed and accuracy</t>
         </is>
       </c>
       <c r="CF4" t="inlineStr">
         <is>
-          <t>Missing: Finger Dexterity, Creativity, Speed And Accuracy</t>
+          <t>Missing: Speed And Accuracy, Creativity, Decision Making &amp; Problem Solving</t>
         </is>
       </c>
     </row>
@@ -8067,7 +8067,7 @@
   Score 6.0: 2 type(s) (Spatial-Visual, Interpersonal)
   Score 5.0: 1 type(s) (Musical)
   Score 4.0: 1 type(s) (Intrapersonal)
-Top personality traits from previous analysis: Realistic, Investigative, Enterprising
+Top personality traits from previous analysis: Investigative, Enterprising, Realistic
 No tie-breaker needed for group with score 10.0.
 No tie-breaker needed for group with score 9.0.
 Rank 1: Linguistic (selected uniquely from score 10.0)
@@ -8178,12 +8178,12 @@
       </c>
       <c r="CE2" t="inlineStr">
         <is>
-          <t>Communication</t>
+          <t>Finger dexterity</t>
         </is>
       </c>
       <c r="CF2" t="inlineStr">
         <is>
-          <t>Missing: Communication, Motor Movement, Finger Dexterity</t>
+          <t>Missing: Finger Dexterity, Logical Reasoning, Motor Movement</t>
         </is>
       </c>
     </row>
@@ -8448,7 +8448,7 @@
   Score 9.0: 1 type(s) (Logical-Mathematical)
   Score 8.0: 1 type(s) (Linguistic)
   Score 4.0: 1 type(s) (Intrapersonal)
-Top personality traits from previous analysis: Realistic, Conventional, Artistic
+Top personality traits from previous analysis: Conventional, Realistic, Artistic
 No tie-breaker needed for group with score 12.0.
 No tie-breaker needed for group with score 11.0.
 Rank 1: Naturalistic (selected uniquely from score 12.0)
@@ -8559,12 +8559,12 @@
       </c>
       <c r="CE3" t="inlineStr">
         <is>
-          <t>Computational</t>
+          <t>Creativity</t>
         </is>
       </c>
       <c r="CF3" t="inlineStr">
         <is>
-          <t>Missing: Computational, Communication, Creativity</t>
+          <t>Missing: Creativity, Computational, Communication</t>
         </is>
       </c>
     </row>
@@ -8827,7 +8827,7 @@
   Score 11.0: 3 type(s) (Naturalistic, Logical-Mathematical, Bodily-Kinesthetic)
   Score 9.0: 1 type(s) (Musical)
   Score 8.0: 1 type(s) (Spatial-Visual)
-Top personality traits from previous analysis: Realistic, Social, Artistic
+Top personality traits from previous analysis: Social, Realistic, Artistic
 No tie-breaker needed for group with score 12.0.
 Rank 1: Linguistic (selected uniquely from score 12.0)
 Rank 2: Intrapersonal (selected uniquely from score 12.0)
@@ -8937,12 +8937,12 @@
       </c>
       <c r="CE4" t="inlineStr">
         <is>
-          <t>Finger dexterity</t>
+          <t>Speed and accuracy</t>
         </is>
       </c>
       <c r="CF4" t="inlineStr">
         <is>
-          <t>Missing: Finger Dexterity, Creativity, Speed And Accuracy</t>
+          <t>Missing: Speed And Accuracy, Creativity, Decision Making &amp; Problem Solving</t>
         </is>
       </c>
     </row>
@@ -10153,7 +10153,7 @@
   Score 6.0: 2 type(s) (Spatial-Visual, Interpersonal)
   Score 5.0: 1 type(s) (Musical)
   Score 4.0: 1 type(s) (Intrapersonal)
-Top personality traits from previous analysis: Realistic, Investigative, Enterprising
+Top personality traits from previous analysis: Investigative, Enterprising, Realistic
 No tie-breaker needed for group with score 10.0.
 No tie-breaker needed for group with score 9.0.
 Rank 1: Linguistic (selected uniquely from score 10.0)
@@ -10264,12 +10264,12 @@
       </c>
       <c r="CE2" t="inlineStr">
         <is>
-          <t>Communication</t>
+          <t>Finger dexterity</t>
         </is>
       </c>
       <c r="CF2" t="inlineStr">
         <is>
-          <t>Missing: Communication, Motor Movement, Finger Dexterity</t>
+          <t>Missing: Finger Dexterity, Logical Reasoning, Motor Movement</t>
         </is>
       </c>
       <c r="CG2" t="inlineStr">
@@ -10791,11 +10791,11 @@
       </c>
       <c r="GC2" t="inlineStr">
         <is>
-          <t>• Debate on Current Affairs: Discuss the impact of technology on education.
-• Essay Writing: Participate in essay contests on themes like My Vision for India's Future.
-• Book Clubs: Read and discuss novels or plays focusing on themes and character analysis.
-• Creative Blogging: Start a blog on a favorite topic with weekly updates.
-• Spoken Word Poetry: Write and perform spoken-word pieces to express personal views creatively.</t>
+          <t>• Intricate Origami: Create complex origami designs.
+• Knitting Projects: Knit wearable items like scarves.
+• Model Assembly: Build detailed models of cars or airplanes.
+• Calligraphy Classes: Practice decorative writing to improve hand control.
+• Clay Sculpting: Sculpt detailed miniatures from clay or polymer.</t>
         </is>
       </c>
     </row>
@@ -11060,7 +11060,7 @@
   Score 9.0: 1 type(s) (Logical-Mathematical)
   Score 8.0: 1 type(s) (Linguistic)
   Score 4.0: 1 type(s) (Intrapersonal)
-Top personality traits from previous analysis: Realistic, Conventional, Artistic
+Top personality traits from previous analysis: Conventional, Realistic, Artistic
 No tie-breaker needed for group with score 12.0.
 No tie-breaker needed for group with score 11.0.
 Rank 1: Naturalistic (selected uniquely from score 12.0)
@@ -11171,12 +11171,12 @@
       </c>
       <c r="CE3" t="inlineStr">
         <is>
-          <t>Computational</t>
+          <t>Creativity</t>
         </is>
       </c>
       <c r="CF3" t="inlineStr">
         <is>
-          <t>Missing: Computational, Communication, Creativity</t>
+          <t>Missing: Creativity, Computational, Communication</t>
         </is>
       </c>
       <c r="CG3" t="inlineStr">
@@ -11707,11 +11707,11 @@
       </c>
       <c r="GC3" t="inlineStr">
         <is>
-          <t>• Budget Proposal: Create a detailed budget for a school event or trip.
-• Competitive Sudoku: Engage in Sudoku puzzles or interschool logic contests.
-• Advanced Math Research: Present shortcuts and strategies for complex math topics.
-• Data Crunching: Analyze school-related data using Excel or Google Sheets.
-• Financial Literacy: Explore concepts like investments and savings with real-world problems.</t>
+          <t>• Art Portfolio: Develop a personal portfolio in any medium like painting or digital art.
+• Drama Workshop: Write, direct, or perform plays in a theatre workshop.
+• Innovation Challenge: Design and present prototypes to solve common school-related problems.
+• Storytelling Sessions: Create and perform original skits in groups.
+• Brainstorm Sessions: Generate 50 creative uses for everyday objects like paperclips.</t>
         </is>
       </c>
     </row>
@@ -11974,7 +11974,7 @@
   Score 11.0: 3 type(s) (Naturalistic, Logical-Mathematical, Bodily-Kinesthetic)
   Score 9.0: 1 type(s) (Musical)
   Score 8.0: 1 type(s) (Spatial-Visual)
-Top personality traits from previous analysis: Realistic, Social, Artistic
+Top personality traits from previous analysis: Social, Realistic, Artistic
 No tie-breaker needed for group with score 12.0.
 Rank 1: Linguistic (selected uniquely from score 12.0)
 Rank 2: Intrapersonal (selected uniquely from score 12.0)
@@ -12084,12 +12084,12 @@
       </c>
       <c r="CE4" t="inlineStr">
         <is>
-          <t>Finger dexterity</t>
+          <t>Speed and accuracy</t>
         </is>
       </c>
       <c r="CF4" t="inlineStr">
         <is>
-          <t>Missing: Finger Dexterity, Creativity, Speed And Accuracy</t>
+          <t>Missing: Speed And Accuracy, Creativity, Decision Making &amp; Problem Solving</t>
         </is>
       </c>
       <c r="CG4" t="inlineStr">
@@ -12607,11 +12607,11 @@
       </c>
       <c r="GC4" t="inlineStr">
         <is>
-          <t>• Intricate Origami: Create complex origami designs.
-• Knitting Projects: Knit wearable items like scarves.
-• Model Assembly: Build detailed models of cars or airplanes.
-• Calligraphy Classes: Practice decorative writing to improve hand control.
-• Clay Sculpting: Sculpt detailed miniatures from clay or polymer.</t>
+          <t>• Timed Problem Sets: Solve algebra or calculus problems within a 10-minute window.
+• Typing Challenges: Improve your typing speed to 60 WPM with 99% accuracy.
+• Quick Reflex Apps: Use apps like Brain Trainer to enhance cognitive speed.
+• Proofread Sprint: Edit articles or essays with grammatical errors quickly and accurately.
+• Flash Math: Solve quick math problems using flashcards or apps.</t>
         </is>
       </c>
     </row>
